--- a/Doc/ProgramSchedule.xlsx
+++ b/Doc/ProgramSchedule.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4BE198-76F8-4CCD-A2F9-45DD4D77EFBE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA831F1-9DF4-4078-ACEF-66D874F2257F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种小会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月11号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（美）啊咩、（程序、流程）邱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -126,6 +150,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,6 +483,32 @@
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/ProgramSchedule.xlsx
+++ b/Doc/ProgramSchedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA831F1-9DF4-4078-ACEF-66D874F2257F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13550053-BFB9-4A47-A466-002ABE4B525D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="策划" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,94 @@
   </si>
   <si>
     <t>（美）啊咩、（程序、流程）邱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本敲定了人物和场景风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月15号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给3d美术人物三视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月22号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月19号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画美术出第一版动画分镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d美术完成主角模型贴图动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月24号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主美给场景设计图1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法前剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月17号之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吧内详细设定地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晋彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机跟随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛懿宸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关流程控制及ai寻路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月21号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +194,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,11 +241,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,6 +268,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,6 +635,50 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -519,10 +688,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C420E3B-F7A7-416E-ABCF-E991CDD7DF8F}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8374054-E6C0-4656-A349-6AF965DB1A56}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,58 +804,51 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8374054-E6C0-4656-A349-6AF965DB1A56}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/ProgramSchedule.xlsx
+++ b/Doc/ProgramSchedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13550053-BFB9-4A47-A466-002ABE4B525D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D810AA8-220A-4408-9C29-DC1A66F16042}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="策划" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,26 @@
   </si>
   <si>
     <t>拼盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界观、剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晋彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量确认、动画、道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -279,6 +299,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,15 +582,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="12" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -677,6 +702,28 @@
       </c>
       <c r="E9" s="6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C420E3B-F7A7-416E-ABCF-E991CDD7DF8F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -774,7 +821,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Doc/ProgramSchedule.xlsx
+++ b/Doc/ProgramSchedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D810AA8-220A-4408-9C29-DC1A66F16042}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75886F3C-BB56-49A1-BBFB-636BA14EF15D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="策划" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,22 @@
   </si>
   <si>
     <t>工作量确认、动画、道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晋彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -272,11 +288,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -301,6 +326,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,6 +757,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C420E3B-F7A7-416E-ABCF-E991CDD7DF8F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,6 +851,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -820,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8374054-E6C0-4656-A349-6AF965DB1A56}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Doc/ProgramSchedule.xlsx
+++ b/Doc/ProgramSchedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75886F3C-BB56-49A1-BBFB-636BA14EF15D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C99C8-4C45-4263-9691-A6718AE70443}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="策划" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,34 @@
   </si>
   <si>
     <t>完善一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关卡设计、道具三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础逻辑，包括出生位置，磁力逻辑，操作逻辑，死亡逻辑，刷新逻辑，血量，UI逻辑，动画资源汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体程序逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱衍嘉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -297,11 +325,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +368,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,6 +811,28 @@
         <v>46</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C420E3B-F7A7-416E-ABCF-E991CDD7DF8F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,6 +927,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -873,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8374054-E6C0-4656-A349-6AF965DB1A56}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
